--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="수정사항" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>회원가입 - 서명 등록 버튼 위치 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,38 @@
   </si>
   <si>
     <t>dlfqksguswkd12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ilbangwanri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반관리12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlfqksrhksfl12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총괄관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총괄관리12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chdrhkfrhksfl12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -958,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,10 +1142,40 @@
       <c r="E21" t="s">
         <v>1</v>
       </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>회원가입 - 서명 등록 버튼 위치 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>chdrhkfrhksfl12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhksflwk22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +1003,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,6 +1058,15 @@
       <c r="H4" t="s">
         <v>47</v>
       </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
